--- a/running shoes.xlsx
+++ b/running shoes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,21 +471,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.adidas.com/us/women-running-shoes</t>
+          <t>https://www.nike.com/w/running-shoes-37v7jzy7ok</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>My Site</t>
+          <t>Competitor</t>
         </is>
       </c>
     </row>
@@ -499,21 +499,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.nike.com/w/running-shoes-37v7jzy7ok</t>
+          <t>https://www.adidas.com/us/women-running-shoes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Competitor</t>
+          <t>My Site</t>
         </is>
       </c>
     </row>
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.reebok.com/c/200000012/men-running-shoes</t>
+          <t>https://www.hoka.com/en/us/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -547,27 +547,139 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>running shoes</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.adidas.com/us/running-shoes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10-01-2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>My Site</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>running shoes</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.hoka.com/en/us/</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09-01-2024</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>running shoes</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.reebok.com/c/200000012/men-running-shoes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10-01-2024</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Competitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>running shoes</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.nike.com/running</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10-01-2024</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Competitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>running shoes</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>66</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.hoka.com/en/us/mens-road/</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-01-2024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Competitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>running shoes</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>90</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.reebok.com/c/100000014/women-running-shoes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-01-2024</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Competitor</t>
         </is>
@@ -584,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,27 +741,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.adidas.com/us/women-running-shoes</t>
+          <t>https://www.nike.com/w/running-shoes-37v7jzy7ok</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>My Site</t>
+          <t>Competitor</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -657,16 +769,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.adidas.com/us/running-shoes</t>
+          <t>https://www.adidas.com/us/women-running-shoes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -685,16 +797,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.nike.com/w/running-shoes-37v7jzy7ok</t>
+          <t>https://www.hoka.com/en/us/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +817,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -713,103 +825,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.nike.com/running</t>
+          <t>https://www.reebok.com/c/200000012/men-running-shoes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>10-01-2024</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Competitor</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>running shoes</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.reebok.com/c/200000012/men-running-shoes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>09-01-2024</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Competitor</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>running shoes</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.hoka.com/en/us/</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>09-01-2024</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Competitor</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>running shoes</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>73</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.hoka.com/en/us/mens-everyday-running-gear/</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>09-01-2024</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Competitor</t>
         </is>
